--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plg-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plg-Itga9.xlsx
@@ -540,10 +540,10 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H2">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N2">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O2">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P2">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q2">
-        <v>0.06166512934666667</v>
+        <v>0.09065781909066666</v>
       </c>
       <c r="R2">
-        <v>0.36999077608</v>
+        <v>0.543946914544</v>
       </c>
       <c r="S2">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="T2">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H3">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>14.827407</v>
       </c>
       <c r="O3">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P3">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q3">
-        <v>0.121223937163</v>
+        <v>0.1709031643165</v>
       </c>
       <c r="R3">
-        <v>0.727343622978</v>
+        <v>1.025418985899</v>
       </c>
       <c r="S3">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="T3">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H4">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N4">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O4">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P4">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q4">
-        <v>0.2009552213993333</v>
+        <v>0.3837362984161666</v>
       </c>
       <c r="R4">
-        <v>1.205731328396</v>
+        <v>2.302417790497</v>
       </c>
       <c r="S4">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="T4">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H5">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N5">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O5">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P5">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q5">
-        <v>0.0368291177615</v>
+        <v>0.01699735559225</v>
       </c>
       <c r="R5">
-        <v>0.147316471046</v>
+        <v>0.06798942236899999</v>
       </c>
       <c r="S5">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="T5">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H6">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N6">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O6">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P6">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q6">
-        <v>0.1809396441983333</v>
+        <v>0.4900546279475</v>
       </c>
       <c r="R6">
-        <v>1.08563786519</v>
+        <v>2.940327767685</v>
       </c>
       <c r="S6">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="T6">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
     </row>
   </sheetData>
